--- a/Enrollproject/PreEnroll.xlsx
+++ b/Enrollproject/PreEnroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="管联" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="医学" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建工" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="其它" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="管联" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="医学" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="建工" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="其它" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>姓名</t>
   </si>
@@ -99,6 +99,42 @@
   </si>
   <si>
     <t>2018-11-10 01:37:23</t>
+  </si>
+  <si>
+    <t>17040502677</t>
+  </si>
+  <si>
+    <t>市区</t>
+  </si>
+  <si>
+    <t>2018-11-10 11:26:04</t>
+  </si>
+  <si>
+    <t>chenheyu chen2</t>
+  </si>
+  <si>
+    <t>18031512033</t>
+  </si>
+  <si>
+    <t>2018-11-10 12:27:31</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>建工</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:23:50</t>
+  </si>
+  <si>
+    <t>测试54</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:24:12</t>
   </si>
 </sst>
 </file>
@@ -438,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +705,58 @@
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +838,7 @@
     <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,6 +859,33 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +916,7 @@
     <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,6 +937,33 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollproject/PreEnroll.xlsx
+++ b/Enrollproject/PreEnroll.xlsx
@@ -7,10 +7,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="管联" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="医学" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="建工" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="其它" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="市区" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="曹妃甸" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="迁安" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>姓名</t>
   </si>
@@ -44,13 +43,91 @@
     <t>zhou kk</t>
   </si>
   <si>
+    <t>17040502677</t>
+  </si>
+  <si>
+    <t>管联</t>
+  </si>
+  <si>
+    <t>市区</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2018-11-10 11:26:04</t>
+  </si>
+  <si>
+    <t>chenheyu chen2</t>
+  </si>
+  <si>
+    <t>18031512033</t>
+  </si>
+  <si>
+    <t>2018-11-10 12:27:31</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>17040502032</t>
   </si>
   <si>
-    <t>管联</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>建工</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:23:50</t>
+  </si>
+  <si>
+    <t>测试54</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:24:12</t>
+  </si>
+  <si>
+    <t>张二蛋</t>
+  </si>
+  <si>
+    <t>15525011925</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:47:54</t>
+  </si>
+  <si>
+    <t>18031512032</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:51:55</t>
+  </si>
+  <si>
+    <t>15644486666</t>
+  </si>
+  <si>
+    <t>2018-11-10 13:52:59</t>
+  </si>
+  <si>
+    <t>张丽娟</t>
+  </si>
+  <si>
+    <t>18032519800</t>
+  </si>
+  <si>
+    <t>曹妃甸</t>
+  </si>
+  <si>
+    <t>单人间</t>
+  </si>
+  <si>
+    <t>单程</t>
+  </si>
+  <si>
+    <t>2018-11-10 14:16:24</t>
   </si>
   <si>
     <t>2018-11-10 01:16:13</t>
@@ -59,9 +136,6 @@
     <t>zhou kk3</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>2018-11-10 01:21:28</t>
   </si>
   <si>
@@ -99,42 +173,6 @@
   </si>
   <si>
     <t>2018-11-10 01:37:23</t>
-  </si>
-  <si>
-    <t>17040502677</t>
-  </si>
-  <si>
-    <t>市区</t>
-  </si>
-  <si>
-    <t>2018-11-10 11:26:04</t>
-  </si>
-  <si>
-    <t>chenheyu chen2</t>
-  </si>
-  <si>
-    <t>18031512033</t>
-  </si>
-  <si>
-    <t>2018-11-10 12:27:31</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>建工</t>
-  </si>
-  <si>
-    <t>2018-11-10 13:23:50</t>
-  </si>
-  <si>
-    <t>测试54</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>2018-11-10 13:24:12</t>
   </si>
 </sst>
 </file>
@@ -474,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +527,7 @@
     <col customWidth="1" max="5" min="5" width="25"/>
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -525,238 +564,176 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s"/>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -765,57 +742,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -836,6 +762,7 @@
     <col customWidth="1" max="5" min="5" width="25"/>
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -864,28 +791,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -893,13 +820,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,6 +841,7 @@
     <col customWidth="1" max="5" min="5" width="25"/>
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -942,28 +870,194 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s"/>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s"/>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s"/>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s"/>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s"/>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
